--- a/data_excel/927.xlsx
+++ b/data_excel/927.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前400題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -99,9 +99,6 @@
     <t>跟</t>
   </si>
   <si>
-    <t>u</t>
-  </si>
-  <si>
     <t>同學</t>
   </si>
   <si>
@@ -142,6 +139,10 @@
   </si>
   <si>
     <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>and</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +516,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -597,7 +598,7 @@
         <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -620,7 +621,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -640,12 +641,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
+      <c r="B7" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -662,43 +663,43 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -709,7 +710,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -726,18 +727,18 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -753,7 +754,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -787,5 +788,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>